--- a/Mechanics/BOM.xlsx
+++ b/Mechanics/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14389\S4H2020-SLEARH\Mechanics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14389\S4H2021-SLIRUS\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A652F-3167-4F35-BEEE-459E5BD48A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC9818-F88C-4E51-A5B6-C3D739BB62E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
+    <workbookView xWindow="4260" yWindow="430" windowWidth="14400" windowHeight="7360" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>Part name</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>Connects arm to base and allows rotation</t>
+  </si>
+  <si>
+    <t>M2.0 bolt</t>
+  </si>
+  <si>
+    <t>Used to fix pieces to dynamixel</t>
   </si>
 </sst>
 </file>
@@ -573,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE6502-7268-4140-B2A6-28BB744ECD8D}">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1031,6 +1037,20 @@
         <v>57</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Mechanics/BOM.xlsx
+++ b/Mechanics/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14389\S4H2021-SLIRUS\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC9818-F88C-4E51-A5B6-C3D739BB62E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE8C66-30A7-44F7-A183-87CBCFF8BC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="430" windowWidth="14400" windowHeight="7360" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Part name</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Used to fix pieces to dynamixel</t>
+  </si>
+  <si>
+    <t>BOLTS FOR OPEN CR</t>
+  </si>
+  <si>
+    <t>Used to fasten open CR to Arm</t>
+  </si>
+  <si>
+    <t>BOLTS FOR DRIVE</t>
   </si>
 </sst>
 </file>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE6502-7268-4140-B2A6-28BB744ECD8D}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,6 +1060,28 @@
         <v>59</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Mechanics/BOM.xlsx
+++ b/Mechanics/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14389\S4H2021-SLIRUS\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CE8C66-30A7-44F7-A183-87CBCFF8BC4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CF631-7306-4E12-8DBB-5EF54C2CA737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7400" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Part name</t>
   </si>
@@ -215,13 +215,16 @@
     <t>Used to fix pieces to dynamixel</t>
   </si>
   <si>
-    <t>BOLTS FOR OPEN CR</t>
-  </si>
-  <si>
     <t>Used to fasten open CR to Arm</t>
   </si>
   <si>
-    <t>BOLTS FOR DRIVE</t>
+    <t>Used to fasten drive to hand</t>
+  </si>
+  <si>
+    <t>M3-0.5</t>
+  </si>
+  <si>
+    <t>M2.5-0.45</t>
   </si>
 </sst>
 </file>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE6502-7268-4140-B2A6-28BB744ECD8D}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,13 +1068,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1">
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1079,7 +1082,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanics/BOM.xlsx
+++ b/Mechanics/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14389\S4H2021-SLIRUS\Mechanics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4CF631-7306-4E12-8DBB-5EF54C2CA737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B70430-7A0B-448B-9476-041FF5A5D1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7400" xr2:uid="{7AD32590-815E-443F-988E-DE8C17596949}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CE6502-7268-4140-B2A6-28BB744ECD8D}">
   <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
